--- a/biology/Botanique/Gentiana_burseri/Gentiana_burseri.xlsx
+++ b/biology/Botanique/Gentiana_burseri/Gentiana_burseri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gentiane de Burser (Gentiana burseri Lapeyr., 1813) est une espèce végétale de la famille des gentianacées. C'est une plante de montagne se trouvant dans les Pyrénées et les Alpes. 2 sous-espèces ont été identifiées : Gentiana burseri subsp. burseri dénommée aussi gentiane de Burser, endémique des Pyrénées, et Gentiana burseri subsp. villarsii (Griseb.) Rouy dénommée gentiane de Villars, endémique des Alpes.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Description d'Hippolyte Coste (1858 - 1924)[1],[2] : « Plante vivace de 30-60 cm., glabre, à racine épaisse ; tige robuste, cylindrique, creuse, simple, dressée ; feuilles amples, ovales, à 5-7 nervures convergentes, les radicales pétiolées, les autres  sessiles et embrassantes ; fleurs jaunes souvent ponctuées de brun, sessiles, en fascicules denses axillaires et terminaux, occupant le sommet de la tige ; calice membraneux, fendu d'un côté en forme de spathe ; corolle en cloche obconique, plissée à la gorge, à 6 lobes ovales-oblongs, aigus, trois fois plus courts que le tube ; anthères soudées en tube. »
+Description d'Hippolyte Coste (1858 - 1924), : « Plante vivace de 30-60 cm., glabre, à racine épaisse ; tige robuste, cylindrique, creuse, simple, dressée ; feuilles amples, ovales, à 5-7 nervures convergentes, les radicales pétiolées, les autres  sessiles et embrassantes ; fleurs jaunes souvent ponctuées de brun, sessiles, en fascicules denses axillaires et terminaux, occupant le sommet de la tige ; calice membraneux, fendu d'un côté en forme de spathe ; corolle en cloche obconique, plissée à la gorge, à 6 lobes ovales-oblongs, aigus, trois fois plus courts que le tube ; anthères soudées en tube. »
 Répartition : pâturages et bois des hautes montagnes dans les Alpes et les Pyrénées.
 </t>
         </is>
@@ -546,9 +560,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gentiana burseri subsp. burseri
-Aussi appelée gentiane de Burser, elle est endémique des Pyrénées.
-Caractéristiques[3] :
+          <t>Gentiana burseri subsp. burseri</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aussi appelée gentiane de Burser, elle est endémique des Pyrénées.
+Caractéristiques :
 Organes reproducteurs :
 Type d'inflorescence : fleur solitaire terminale
 Répartition des sexes : hermaphrodite
@@ -560,9 +579,43 @@
 Mode de dissémination : barochore
 Habitat et répartition :
 Habitat type: mégaphorbiaies subalpines à montagnardes, mésohydriques oligotrophiles, acidophiles, occidentales
-Aire de répartition : orophyte pyrénéen.
-Gentiana burseri subsp. villarsii (Griseb.) Rouy
-Appelée Gentiane de Villars, elle est endémique des Alpes. Caractéristiques[3] :
+Aire de répartition : orophyte pyrénéen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gentiana_burseri</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gentiana_burseri</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gentiana burseri subsp. villarsii (Griseb.) Rouy</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Appelée Gentiane de Villars, elle est endémique des Alpes. Caractéristiques :
 Organes reproducteurs :
 Type d'inflorescence : fleur solitaire terminale
 Répartition des sexes : hermaphrodite
@@ -574,7 +627,7 @@
 Mode de dissémination : barochore
 Habitat et répartition :
 Habitat type:
-Aire de répartition : orophyte alpin[4].</t>
+Aire de répartition : orophyte alpin.</t>
         </is>
       </c>
     </row>
